--- a/service/public/downloads/信息学院留学生信息汇总表.xlsx
+++ b/service/public/downloads/信息学院留学生信息汇总表.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -409,27 +409,36 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>1412190126</v>
+        <v>1712510107</v>
       </c>
       <c r="B2" t="str">
-        <v>TEST XU</v>
+        <v>Thomas oduro Dwumah</v>
+      </c>
+      <c r="C2" t="str">
+        <v/>
       </c>
       <c r="D2" t="str">
-        <v>SOFTWARE ENGINEER</v>
+        <v>计科</v>
+      </c>
+      <c r="E2" t="str">
+        <v/>
       </c>
       <c r="F2" t="str">
-        <v>2649387037@qq.com</v>
+        <v>classwork2017@yahoo.com</v>
+      </c>
+      <c r="G2" t="str">
+        <v/>
       </c>
       <c r="H2" t="str">
-        <v>developer</v>
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>1712510107</v>
+        <v>1712510105</v>
       </c>
       <c r="B3" t="str">
-        <v>Thomas oduro Dwumah</v>
+        <v xml:space="preserve">  Leon Tinashe Kanyayi</v>
       </c>
       <c r="C3" t="str">
         <v/>
@@ -441,7 +450,7 @@
         <v/>
       </c>
       <c r="F3" t="str">
-        <v>classwork2017@yahoo.com</v>
+        <v>leonkanyayi@yahoo.com</v>
       </c>
       <c r="G3" t="str">
         <v/>
@@ -478,10 +487,10 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>1712510105</v>
+        <v>1712510104</v>
       </c>
       <c r="B5" t="str">
-        <v xml:space="preserve">  Leon Tinashe Kanyayi</v>
+        <v xml:space="preserve"> James Djaja</v>
       </c>
       <c r="C5" t="str">
         <v/>
@@ -493,7 +502,7 @@
         <v/>
       </c>
       <c r="F5" t="str">
-        <v>leonkanyayi@yahoo.com</v>
+        <v>jamestjandra@qq.com</v>
       </c>
       <c r="G5" t="str">
         <v/>
@@ -504,22 +513,22 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>1712510104</v>
+        <v>1712510102</v>
       </c>
       <c r="B6" t="str">
-        <v xml:space="preserve"> James Djaja</v>
+        <v>Ayman Sadeq Mohammed Ali</v>
       </c>
       <c r="C6" t="str">
         <v/>
       </c>
       <c r="D6" t="str">
-        <v>计科</v>
+        <v>计科（大数据）</v>
       </c>
       <c r="E6" t="str">
         <v/>
       </c>
       <c r="F6" t="str">
-        <v>jamestjandra@qq.com</v>
+        <v>aymanasrmy@qq.com</v>
       </c>
       <c r="G6" t="str">
         <v/>
@@ -530,10 +539,10 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>1712510102</v>
+        <v>1712510103</v>
       </c>
       <c r="B7" t="str">
-        <v>Ayman Sadeq Mohammed Ali</v>
+        <v xml:space="preserve">  Chimezie Ohaga</v>
       </c>
       <c r="C7" t="str">
         <v/>
@@ -545,7 +554,7 @@
         <v/>
       </c>
       <c r="F7" t="str">
-        <v>aymanasrmy@qq.com</v>
+        <v>donchimezy@yahoo.com</v>
       </c>
       <c r="G7" t="str">
         <v/>
@@ -556,22 +565,22 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>1712510103</v>
+        <v>1712510109</v>
       </c>
       <c r="B8" t="str">
-        <v xml:space="preserve">  Chimezie Ohaga</v>
+        <v xml:space="preserve">Vepa Dovletmyradov </v>
       </c>
       <c r="C8" t="str">
         <v/>
       </c>
       <c r="D8" t="str">
-        <v>计科（大数据）</v>
+        <v>计科</v>
       </c>
       <c r="E8" t="str">
         <v/>
       </c>
       <c r="F8" t="str">
-        <v>donchimezy@yahoo.com</v>
+        <v/>
       </c>
       <c r="G8" t="str">
         <v/>
@@ -608,10 +617,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>1712510109</v>
+        <v>1712510110</v>
       </c>
       <c r="B10" t="str">
-        <v xml:space="preserve">Vepa Dovletmyradov </v>
+        <v>Angelo  Niyokwizera</v>
       </c>
       <c r="C10" t="str">
         <v/>
@@ -623,7 +632,7 @@
         <v/>
       </c>
       <c r="F10" t="str">
-        <v/>
+        <v>angeloniyokwizera@yahoo.com</v>
       </c>
       <c r="G10" t="str">
         <v/>
@@ -634,10 +643,10 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>1712510106</v>
+        <v>1712510113</v>
       </c>
       <c r="B11" t="str">
-        <v xml:space="preserve"> Adrien Claris Alexis Tsomambet</v>
+        <v xml:space="preserve"> Colassins Tshikala Kazadi</v>
       </c>
       <c r="C11" t="str">
         <v/>
@@ -649,7 +658,7 @@
         <v/>
       </c>
       <c r="F11" t="str">
-        <v>alexisadrien90@yahoo.fr</v>
+        <v/>
       </c>
       <c r="G11" t="str">
         <v/>
@@ -660,10 +669,10 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>1712510110</v>
+        <v>1712510503</v>
       </c>
       <c r="B12" t="str">
-        <v>Angelo  Niyokwizera</v>
+        <v xml:space="preserve"> Carlo LucianoAntola Pollack</v>
       </c>
       <c r="C12" t="str">
         <v/>
@@ -675,7 +684,7 @@
         <v/>
       </c>
       <c r="F12" t="str">
-        <v>angeloniyokwizera@yahoo.com</v>
+        <v>lucianoantola@hotmail.com</v>
       </c>
       <c r="G12" t="str">
         <v/>
@@ -686,10 +695,10 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>1712510113</v>
+        <v>1712510106</v>
       </c>
       <c r="B13" t="str">
-        <v xml:space="preserve"> Colassins Tshikala Kazadi</v>
+        <v xml:space="preserve"> Adrien Claris Alexis Tsomambet</v>
       </c>
       <c r="C13" t="str">
         <v/>
@@ -701,7 +710,7 @@
         <v/>
       </c>
       <c r="F13" t="str">
-        <v/>
+        <v>alexisadrien90@yahoo.fr</v>
       </c>
       <c r="G13" t="str">
         <v/>
@@ -712,10 +721,10 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>1712510503</v>
+        <v>1712510501</v>
       </c>
       <c r="B14" t="str">
-        <v xml:space="preserve"> Carlo LucianoAntola Pollack</v>
+        <v>Abdulaziz Abdurakhmonov</v>
       </c>
       <c r="C14" t="str">
         <v/>
@@ -727,7 +736,7 @@
         <v/>
       </c>
       <c r="F14" t="str">
-        <v>lucianoantola@hotmail.com</v>
+        <v>abdurahmonovo123@mail.ru</v>
       </c>
       <c r="G14" t="str">
         <v/>
@@ -738,10 +747,10 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>1712510501</v>
+        <v>1712510502</v>
       </c>
       <c r="B15" t="str">
-        <v>Abdulaziz Abdurakhmonov</v>
+        <v>Roza Allaberdiyeva</v>
       </c>
       <c r="C15" t="str">
         <v/>
@@ -753,7 +762,7 @@
         <v/>
       </c>
       <c r="F15" t="str">
-        <v>abdurahmonovo123@mail.ru</v>
+        <v>roza.allaberdiyedo@bk.ru</v>
       </c>
       <c r="G15" t="str">
         <v/>
@@ -764,22 +773,22 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>1712510502</v>
+        <v>1701510115</v>
       </c>
       <c r="B16" t="str">
-        <v>Roza Allaberdiyeva</v>
+        <v>PLOTNIKOVA KRISTINA</v>
       </c>
       <c r="C16" t="str">
         <v/>
       </c>
       <c r="D16" t="str">
-        <v>计科</v>
+        <v>国际商务</v>
       </c>
       <c r="E16" t="str">
         <v/>
       </c>
       <c r="F16" t="str">
-        <v>roza.allaberdiyedo@bk.ru</v>
+        <v>christina_1999@inbox.ru</v>
       </c>
       <c r="G16" t="str">
         <v/>
@@ -790,10 +799,10 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>1701510103</v>
+        <v>1701510105</v>
       </c>
       <c r="B17" t="str">
-        <v>KUNAYEV ALIBEK</v>
+        <v>KALYBEKOVA ZHIBEK</v>
       </c>
       <c r="C17" t="str">
         <v/>
@@ -805,7 +814,7 @@
         <v/>
       </c>
       <c r="F17" t="str">
-        <v>alibekunaev@gmail.com</v>
+        <v>cielphantomhive550@gmail.com</v>
       </c>
       <c r="G17" t="str">
         <v/>
@@ -816,10 +825,10 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>1701510101</v>
+        <v>1701510106</v>
       </c>
       <c r="B18" t="str">
-        <v>ANDUP CHARLES</v>
+        <v>MSONZA LANE-DAVID TAFADZWA</v>
       </c>
       <c r="C18" t="str">
         <v/>
@@ -831,7 +840,7 @@
         <v/>
       </c>
       <c r="F18" t="str">
-        <v>andupcharier@gmail.com</v>
+        <v>lanedavid.ldm@gmail.com</v>
       </c>
       <c r="G18" t="str">
         <v/>
@@ -842,10 +851,10 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>1701510102</v>
+        <v>1701510107</v>
       </c>
       <c r="B19" t="str">
-        <v xml:space="preserve">JANET   </v>
+        <v>DJAFARIS KALISTA   7200</v>
       </c>
       <c r="C19" t="str">
         <v/>
@@ -857,7 +866,7 @@
         <v/>
       </c>
       <c r="F19" t="str">
-        <v>janet2907@yahoo.com</v>
+        <v>tata_romaz@yahoo.com</v>
       </c>
       <c r="G19" t="str">
         <v/>
@@ -868,10 +877,10 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>1701510115</v>
+        <v>1701510109</v>
       </c>
       <c r="B20" t="str">
-        <v>PLOTNIKOVA KRISTINA</v>
+        <v xml:space="preserve">JESSLYN  </v>
       </c>
       <c r="C20" t="str">
         <v/>
@@ -883,7 +892,7 @@
         <v/>
       </c>
       <c r="F20" t="str">
-        <v>christina_1999@inbox.ru</v>
+        <v>jesslyngc@gmail.com</v>
       </c>
       <c r="G20" t="str">
         <v/>
@@ -894,10 +903,10 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>1701510104</v>
+        <v>1701510108</v>
       </c>
       <c r="B21" t="str">
-        <v>AKIM TOKTAR</v>
+        <v xml:space="preserve">ENDON ALFREDO </v>
       </c>
       <c r="C21" t="str">
         <v/>
@@ -909,7 +918,7 @@
         <v/>
       </c>
       <c r="F21" t="str">
-        <v>strong.toktar@inbox.ru</v>
+        <v>sanctrus@yahoo,com</v>
       </c>
       <c r="G21" t="str">
         <v/>
@@ -920,10 +929,10 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>1701510105</v>
+        <v>1701510110</v>
       </c>
       <c r="B22" t="str">
-        <v>KALYBEKOVA ZHIBEK</v>
+        <v>NYAGUWA KIMBERLEY TSITSI</v>
       </c>
       <c r="C22" t="str">
         <v/>
@@ -935,7 +944,7 @@
         <v/>
       </c>
       <c r="F22" t="str">
-        <v>cielphantomhive550@gmail.com</v>
+        <v>nyaguklakim@gmail.com</v>
       </c>
       <c r="G22" t="str">
         <v/>
@@ -946,10 +955,10 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>1701510107</v>
+        <v>1701510111</v>
       </c>
       <c r="B23" t="str">
-        <v>DJAFARIS KALISTA   7200</v>
+        <v>BIKO NZANG SEVERO INOCENCIO NDONG</v>
       </c>
       <c r="C23" t="str">
         <v/>
@@ -961,7 +970,7 @@
         <v/>
       </c>
       <c r="F23" t="str">
-        <v>tata_romaz@yahoo.com</v>
+        <v>sovero.mdongbiko@yahoo.com</v>
       </c>
       <c r="G23" t="str">
         <v/>
@@ -972,10 +981,10 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>1701510106</v>
+        <v>1701510112</v>
       </c>
       <c r="B24" t="str">
-        <v>MSONZA LANE-DAVID TAFADZWA</v>
+        <v>NTWARI RALPH TOUSSAIN</v>
       </c>
       <c r="C24" t="str">
         <v/>
@@ -987,7 +996,7 @@
         <v/>
       </c>
       <c r="F24" t="str">
-        <v>lanedavid.ldm@gmail.com</v>
+        <v/>
       </c>
       <c r="G24" t="str">
         <v/>
@@ -998,10 +1007,10 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>1701510108</v>
+        <v>1701510113</v>
       </c>
       <c r="B25" t="str">
-        <v xml:space="preserve">ENDON ALFREDO </v>
+        <v>REZAZADEH ALI</v>
       </c>
       <c r="C25" t="str">
         <v/>
@@ -1013,7 +1022,7 @@
         <v/>
       </c>
       <c r="F25" t="str">
-        <v>sanctrus@yahoo,com</v>
+        <v/>
       </c>
       <c r="G25" t="str">
         <v/>
@@ -1024,10 +1033,10 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>1701510109</v>
+        <v>1701510114</v>
       </c>
       <c r="B26" t="str">
-        <v xml:space="preserve">JESSLYN  </v>
+        <v>GALUPPO DUTRA DE MORAES GABRIEL</v>
       </c>
       <c r="C26" t="str">
         <v/>
@@ -1039,7 +1048,7 @@
         <v/>
       </c>
       <c r="F26" t="str">
-        <v>jesslyngc@gmail.com</v>
+        <v/>
       </c>
       <c r="G26" t="str">
         <v/>
@@ -1050,10 +1059,10 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>1701510110</v>
+        <v>1701510116</v>
       </c>
       <c r="B27" t="str">
-        <v>NYAGUWA KIMBERLEY TSITSI</v>
+        <v>MUKEBA DAN BIAYI</v>
       </c>
       <c r="C27" t="str">
         <v/>
@@ -1065,7 +1074,7 @@
         <v/>
       </c>
       <c r="F27" t="str">
-        <v>nyaguklakim@gmail.com</v>
+        <v/>
       </c>
       <c r="G27" t="str">
         <v/>
@@ -1076,10 +1085,10 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>1701510111</v>
+        <v>1701510117</v>
       </c>
       <c r="B28" t="str">
-        <v>BIKO NZANG SEVERO INOCENCIO NDONG</v>
+        <v>BATA ROQUE KEN</v>
       </c>
       <c r="C28" t="str">
         <v/>
@@ -1091,7 +1100,7 @@
         <v/>
       </c>
       <c r="F28" t="str">
-        <v>sovero.mdongbiko@yahoo.com</v>
+        <v>roquebata3@gmail.com</v>
       </c>
       <c r="G28" t="str">
         <v/>
@@ -1102,10 +1111,10 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>1701510112</v>
+        <v>1701510118</v>
       </c>
       <c r="B29" t="str">
-        <v>NTWARI RALPH TOUSSAIN</v>
+        <v>NCUBE ALFRED</v>
       </c>
       <c r="C29" t="str">
         <v/>
@@ -1117,7 +1126,7 @@
         <v/>
       </c>
       <c r="F29" t="str">
-        <v/>
+        <v>alfredncube97@gmail.com</v>
       </c>
       <c r="G29" t="str">
         <v/>
@@ -1128,10 +1137,10 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>1701510113</v>
+        <v>1701510120</v>
       </c>
       <c r="B30" t="str">
-        <v>REZAZADEH ALI</v>
+        <v>NURMUKHANOVA AIARU</v>
       </c>
       <c r="C30" t="str">
         <v/>
@@ -1143,7 +1152,7 @@
         <v/>
       </c>
       <c r="F30" t="str">
-        <v/>
+        <v>aiary16081999@mail.ru</v>
       </c>
       <c r="G30" t="str">
         <v/>
@@ -1154,16 +1163,16 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>1701510114</v>
+        <v>1701510121</v>
       </c>
       <c r="B31" t="str">
-        <v>GALUPPO DUTRA DE MORAES GABRIEL</v>
+        <v>ALHADDAD MOHAMMED ABDULAZIZ ABDULLAH</v>
       </c>
       <c r="C31" t="str">
         <v/>
       </c>
       <c r="D31" t="str">
-        <v>国际商务</v>
+        <v>工商管理</v>
       </c>
       <c r="E31" t="str">
         <v/>
@@ -1180,10 +1189,10 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>1701510116</v>
+        <v>1701510119</v>
       </c>
       <c r="B32" t="str">
-        <v>MUKEBA DAN BIAYI</v>
+        <v>HUSSEIN ABDULHAFIZ NESREDIN</v>
       </c>
       <c r="C32" t="str">
         <v/>
@@ -1195,7 +1204,7 @@
         <v/>
       </c>
       <c r="F32" t="str">
-        <v/>
+        <v>abdurealhabesha@gmail.com</v>
       </c>
       <c r="G32" t="str">
         <v/>
@@ -1206,22 +1215,22 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>1701510117</v>
+        <v>1709510118</v>
       </c>
       <c r="B33" t="str">
-        <v>BATA ROQUE KEN</v>
+        <v>CHINHORO COSMAS TINOTENDA</v>
       </c>
       <c r="C33" t="str">
         <v/>
       </c>
       <c r="D33" t="str">
-        <v>国际商务</v>
+        <v>法学（国际法方向）</v>
       </c>
       <c r="E33" t="str">
         <v/>
       </c>
       <c r="F33" t="str">
-        <v>roquebata3@gmail.com</v>
+        <v>ctchinhoro@gmail.com</v>
       </c>
       <c r="G33" t="str">
         <v/>
@@ -1232,22 +1241,22 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>1701510118</v>
+        <v>1709510112</v>
       </c>
       <c r="B34" t="str">
-        <v>NCUBE ALFRED</v>
+        <v>SRENG NORAK VANNAKVEK</v>
       </c>
       <c r="C34" t="str">
         <v/>
       </c>
       <c r="D34" t="str">
-        <v>国际商务</v>
+        <v>法学（国际法方向）</v>
       </c>
       <c r="E34" t="str">
         <v/>
       </c>
       <c r="F34" t="str">
-        <v>alfredncube97@gmail.com</v>
+        <v/>
       </c>
       <c r="G34" t="str">
         <v/>
@@ -1258,22 +1267,22 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>1701510120</v>
+        <v>1709510115</v>
       </c>
       <c r="B35" t="str">
-        <v>NURMUKHANOVA AIARU</v>
+        <v>ORLAYA SENGKHAMYONG</v>
       </c>
       <c r="C35" t="str">
         <v/>
       </c>
       <c r="D35" t="str">
-        <v>国际商务</v>
+        <v>法学（国际法方向）</v>
       </c>
       <c r="E35" t="str">
         <v/>
       </c>
       <c r="F35" t="str">
-        <v>aiary16081999@mail.ru</v>
+        <v>gg.orlaya@gmail.com</v>
       </c>
       <c r="G35" t="str">
         <v/>
@@ -1284,16 +1293,16 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>1701510121</v>
+        <v>1709510120</v>
       </c>
       <c r="B36" t="str">
-        <v>ALHADDAD MOHAMMED ABDULAZIZ ABDULLAH</v>
+        <v>NGWENYA BRENDEL SANDISIWE</v>
       </c>
       <c r="C36" t="str">
         <v/>
       </c>
       <c r="D36" t="str">
-        <v>工商管理</v>
+        <v>法学（国际法方向）</v>
       </c>
       <c r="E36" t="str">
         <v/>
@@ -1310,22 +1319,22 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>1701510119</v>
+        <v>1709510121</v>
       </c>
       <c r="B37" t="str">
-        <v>HUSSEIN ABDULHAFIZ NESREDIN</v>
+        <v>MURANGANWA  BEVERLY TINOVIMBA JERALDINE</v>
       </c>
       <c r="C37" t="str">
         <v/>
       </c>
       <c r="D37" t="str">
-        <v>国际商务</v>
+        <v>法学（国际法方向）</v>
       </c>
       <c r="E37" t="str">
         <v/>
       </c>
       <c r="F37" t="str">
-        <v>abdurealhabesha@gmail.com</v>
+        <v/>
       </c>
       <c r="G37" t="str">
         <v/>
@@ -1336,10 +1345,10 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>1709510118</v>
+        <v>1709510106</v>
       </c>
       <c r="B38" t="str">
-        <v>CHINHORO COSMAS TINOTENDA</v>
+        <v>NAMWAZA BANDA CANDICE CHIKONDI</v>
       </c>
       <c r="C38" t="str">
         <v/>
@@ -1351,7 +1360,7 @@
         <v/>
       </c>
       <c r="F38" t="str">
-        <v>ctchinhoro@gmail.com</v>
+        <v>conamwazaborda30@gmail.com</v>
       </c>
       <c r="G38" t="str">
         <v/>
@@ -1362,10 +1371,10 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>1709510112</v>
+        <v>1709510101</v>
       </c>
       <c r="B39" t="str">
-        <v>SRENG NORAK VANNAKVEK</v>
+        <v>AYAZBAYEVADARIGA</v>
       </c>
       <c r="C39" t="str">
         <v/>
@@ -1377,7 +1386,7 @@
         <v/>
       </c>
       <c r="F39" t="str">
-        <v/>
+        <v>dariga0507@mail.ru</v>
       </c>
       <c r="G39" t="str">
         <v/>
@@ -1388,10 +1397,10 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>1709510115</v>
+        <v>1709510102</v>
       </c>
       <c r="B40" t="str">
-        <v>ORLAYA SENGKHAMYONG</v>
+        <v>KURMANBAYEVA ADEL</v>
       </c>
       <c r="C40" t="str">
         <v/>
@@ -1403,7 +1412,7 @@
         <v/>
       </c>
       <c r="F40" t="str">
-        <v>gg.orlaya@gmail.com</v>
+        <v>delyakurmanbayeva@mail.ru</v>
       </c>
       <c r="G40" t="str">
         <v/>
@@ -1414,10 +1423,10 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>1709510120</v>
+        <v>1709510103</v>
       </c>
       <c r="B41" t="str">
-        <v>NGWENYA BRENDEL SANDISIWE</v>
+        <v>TURAEVA ZIYODAKHON</v>
       </c>
       <c r="C41" t="str">
         <v/>
@@ -1429,7 +1438,7 @@
         <v/>
       </c>
       <c r="F41" t="str">
-        <v/>
+        <v>turaevaziyoda6@gmail.com</v>
       </c>
       <c r="G41" t="str">
         <v/>
@@ -1440,10 +1449,10 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>1709510121</v>
+        <v>1709510104</v>
       </c>
       <c r="B42" t="str">
-        <v>MURANGANWA  BEVERLY TINOVIMBA JERALDINE</v>
+        <v>DENNISON LYNN CLEO（已申请转为语言生，可能不上课）</v>
       </c>
       <c r="C42" t="str">
         <v/>
@@ -1466,10 +1475,10 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>1709510106</v>
+        <v>1709510105</v>
       </c>
       <c r="B43" t="str">
-        <v>NAMWAZA BANDA CANDICE CHIKONDI</v>
+        <v>MONKAM FONGANG AGNES MAEVA</v>
       </c>
       <c r="C43" t="str">
         <v/>
@@ -1481,7 +1490,7 @@
         <v/>
       </c>
       <c r="F43" t="str">
-        <v>conamwazaborda30@gmail.com</v>
+        <v>maeva_monkam@yahoo.com</v>
       </c>
       <c r="G43" t="str">
         <v/>
@@ -1492,10 +1501,10 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>1709510101</v>
+        <v>1709510107</v>
       </c>
       <c r="B44" t="str">
-        <v>AYAZBAYEVADARIGA</v>
+        <v>CHAKASIKWA MUTSA</v>
       </c>
       <c r="C44" t="str">
         <v/>
@@ -1507,7 +1516,7 @@
         <v/>
       </c>
       <c r="F44" t="str">
-        <v>dariga0507@mail.ru</v>
+        <v>chakasikwam@yahoo.com</v>
       </c>
       <c r="G44" t="str">
         <v/>
@@ -1518,10 +1527,10 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>1709510102</v>
+        <v>1709510108</v>
       </c>
       <c r="B45" t="str">
-        <v>KURMANBAYEVA ADEL</v>
+        <v>ERDENEBAT TUGULDUR</v>
       </c>
       <c r="C45" t="str">
         <v/>
@@ -1533,7 +1542,7 @@
         <v/>
       </c>
       <c r="F45" t="str">
-        <v>delyakurmanbayeva@mail.ru</v>
+        <v>tuguldvr0617@yahoo.com</v>
       </c>
       <c r="G45" t="str">
         <v/>
@@ -1544,10 +1553,10 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>1709510103</v>
+        <v>1709510109</v>
       </c>
       <c r="B46" t="str">
-        <v>TURAEVA ZIYODAKHON</v>
+        <v>MAGABANE THABISO CONSTANTINE</v>
       </c>
       <c r="C46" t="str">
         <v/>
@@ -1559,7 +1568,7 @@
         <v/>
       </c>
       <c r="F46" t="str">
-        <v>turaevaziyoda6@gmail.com</v>
+        <v>kingshuff132@gmail.com</v>
       </c>
       <c r="G46" t="str">
         <v/>
@@ -1570,10 +1579,10 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>1709510104</v>
+        <v>1709510110</v>
       </c>
       <c r="B47" t="str">
-        <v>DENNISON LYNN CLEO（已申请转为语言生，可能不上课）</v>
+        <v>AKBET MADINA</v>
       </c>
       <c r="C47" t="str">
         <v/>
@@ -1585,7 +1594,7 @@
         <v/>
       </c>
       <c r="F47" t="str">
-        <v/>
+        <v>akbetmadina@gmail.com</v>
       </c>
       <c r="G47" t="str">
         <v/>
@@ -1596,10 +1605,10 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>1709510105</v>
+        <v>1709510111</v>
       </c>
       <c r="B48" t="str">
-        <v>MONKAM FONGANG AGNES MAEVA</v>
+        <v>KAPALI EMMANUEL</v>
       </c>
       <c r="C48" t="str">
         <v/>
@@ -1611,7 +1620,7 @@
         <v/>
       </c>
       <c r="F48" t="str">
-        <v>maeva_monkam@yahoo.com</v>
+        <v/>
       </c>
       <c r="G48" t="str">
         <v/>
@@ -1622,10 +1631,10 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>1709510107</v>
+        <v>1709510113</v>
       </c>
       <c r="B49" t="str">
-        <v>CHAKASIKWA MUTSA</v>
+        <v>KEWA EDNA</v>
       </c>
       <c r="C49" t="str">
         <v/>
@@ -1637,7 +1646,7 @@
         <v/>
       </c>
       <c r="F49" t="str">
-        <v>chakasikwam@yahoo.com</v>
+        <v/>
       </c>
       <c r="G49" t="str">
         <v/>
@@ -1648,10 +1657,10 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>1709510108</v>
+        <v>1709510114</v>
       </c>
       <c r="B50" t="str">
-        <v>ERDENEBAT TUGULDUR</v>
+        <v>KONGA STEPHANIE</v>
       </c>
       <c r="C50" t="str">
         <v/>
@@ -1663,7 +1672,7 @@
         <v/>
       </c>
       <c r="F50" t="str">
-        <v>tuguldvr0617@yahoo.com</v>
+        <v/>
       </c>
       <c r="G50" t="str">
         <v/>
@@ -1674,10 +1683,10 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>1709510109</v>
+        <v>1709510116</v>
       </c>
       <c r="B51" t="str">
-        <v>MAGABANE THABISO CONSTANTINE</v>
+        <v>SAREPO ISABELLA</v>
       </c>
       <c r="C51" t="str">
         <v/>
@@ -1689,7 +1698,7 @@
         <v/>
       </c>
       <c r="F51" t="str">
-        <v>kingshuff132@gmail.com</v>
+        <v>isarepo@gmail.com</v>
       </c>
       <c r="G51" t="str">
         <v/>
@@ -1700,10 +1709,10 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>1709510110</v>
+        <v>1709510117</v>
       </c>
       <c r="B52" t="str">
-        <v>AKBET MADINA</v>
+        <v>MONG MARUSKA ZIMARLYN</v>
       </c>
       <c r="C52" t="str">
         <v/>
@@ -1715,7 +1724,7 @@
         <v/>
       </c>
       <c r="F52" t="str">
-        <v>akbetmadina@gmail.com</v>
+        <v>loukemaruskazimarlyn@gmail.com</v>
       </c>
       <c r="G52" t="str">
         <v/>
@@ -1726,10 +1735,10 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>1709510111</v>
+        <v>1709510119</v>
       </c>
       <c r="B53" t="str">
-        <v>KAPALI EMMANUEL</v>
+        <v>CHANTHAPASONG KHAMPHOUNCHAY</v>
       </c>
       <c r="C53" t="str">
         <v/>
@@ -1741,7 +1750,7 @@
         <v/>
       </c>
       <c r="F53" t="str">
-        <v/>
+        <v>mimichanthapasong1006@gmail.com</v>
       </c>
       <c r="G53" t="str">
         <v/>
@@ -1752,10 +1761,10 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>1709510113</v>
+        <v>1709510122</v>
       </c>
       <c r="B54" t="str">
-        <v>KEWA EDNA</v>
+        <v>GONESE ASHLEIGH TATENDA</v>
       </c>
       <c r="C54" t="str">
         <v/>
@@ -1767,7 +1776,7 @@
         <v/>
       </c>
       <c r="F54" t="str">
-        <v/>
+        <v>ashleightateundag@gmail.com</v>
       </c>
       <c r="G54" t="str">
         <v/>
@@ -1778,10 +1787,10 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>1709510114</v>
+        <v>1709510123</v>
       </c>
       <c r="B55" t="str">
-        <v>KONGA STEPHANIE</v>
+        <v>CHIDZIWO IRENE</v>
       </c>
       <c r="C55" t="str">
         <v/>
@@ -1793,7 +1802,7 @@
         <v/>
       </c>
       <c r="F55" t="str">
-        <v/>
+        <v>ichidziwo@gmail.com</v>
       </c>
       <c r="G55" t="str">
         <v/>
@@ -1804,22 +1813,22 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>1709510116</v>
+        <v>1704510103</v>
       </c>
       <c r="B56" t="str">
-        <v>SAREPO ISABELLA</v>
+        <v>Kudiretbay Ulas</v>
       </c>
       <c r="C56" t="str">
         <v/>
       </c>
       <c r="D56" t="str">
-        <v>法学（国际法方向）</v>
+        <v>国际商务</v>
       </c>
       <c r="E56" t="str">
         <v/>
       </c>
       <c r="F56" t="str">
-        <v>isarepo@gmail.com</v>
+        <v/>
       </c>
       <c r="G56" t="str">
         <v/>
@@ -1830,22 +1839,22 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>1709510117</v>
+        <v>1701510103</v>
       </c>
       <c r="B57" t="str">
-        <v>MONG MARUSKA ZIMARLYN</v>
+        <v>KUNAYEV ALIBEK</v>
       </c>
       <c r="C57" t="str">
         <v/>
       </c>
       <c r="D57" t="str">
-        <v>法学（国际法方向）</v>
+        <v>国际商务</v>
       </c>
       <c r="E57" t="str">
         <v/>
       </c>
       <c r="F57" t="str">
-        <v>loukemaruskazimarlyn@gmail.com</v>
+        <v>alibekunaev@gmail.com</v>
       </c>
       <c r="G57" t="str">
         <v/>
@@ -1856,22 +1865,22 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>1709510119</v>
+        <v>1701510102</v>
       </c>
       <c r="B58" t="str">
-        <v>CHANTHAPASONG KHAMPHOUNCHAY</v>
+        <v xml:space="preserve">JANET   </v>
       </c>
       <c r="C58" t="str">
         <v/>
       </c>
       <c r="D58" t="str">
-        <v>法学（国际法方向）</v>
+        <v>国际商务</v>
       </c>
       <c r="E58" t="str">
         <v/>
       </c>
       <c r="F58" t="str">
-        <v>mimichanthapasong1006@gmail.com</v>
+        <v>janet2907@yahoo.com</v>
       </c>
       <c r="G58" t="str">
         <v/>
@@ -1882,22 +1891,22 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>1709510122</v>
+        <v>1701510101</v>
       </c>
       <c r="B59" t="str">
-        <v>GONESE ASHLEIGH TATENDA</v>
+        <v>ANDUP CHARLES</v>
       </c>
       <c r="C59" t="str">
         <v/>
       </c>
       <c r="D59" t="str">
-        <v>法学（国际法方向）</v>
+        <v>国际商务</v>
       </c>
       <c r="E59" t="str">
         <v/>
       </c>
       <c r="F59" t="str">
-        <v>ashleightateundag@gmail.com</v>
+        <v>andupcharier@gmail.com</v>
       </c>
       <c r="G59" t="str">
         <v/>
@@ -1908,59 +1917,33 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>1709510123</v>
+        <v>1701510104</v>
       </c>
       <c r="B60" t="str">
-        <v>CHIDZIWO IRENE</v>
+        <v>AKIM TOKTAR</v>
       </c>
       <c r="C60" t="str">
         <v/>
       </c>
       <c r="D60" t="str">
-        <v>法学（国际法方向）</v>
+        <v>国际商务</v>
       </c>
       <c r="E60" t="str">
         <v/>
       </c>
       <c r="F60" t="str">
-        <v>ichidziwo@gmail.com</v>
+        <v>strong.toktar@inbox.ru</v>
       </c>
       <c r="G60" t="str">
         <v/>
       </c>
       <c r="H60" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>1704510103</v>
-      </c>
-      <c r="B61" t="str">
-        <v>Kudiretbay Ulas</v>
-      </c>
-      <c r="C61" t="str">
-        <v/>
-      </c>
-      <c r="D61" t="str">
-        <v>国际商务</v>
-      </c>
-      <c r="E61" t="str">
-        <v/>
-      </c>
-      <c r="F61" t="str">
-        <v/>
-      </c>
-      <c r="G61" t="str">
-        <v/>
-      </c>
-      <c r="H61" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H60"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/service/public/downloads/信息学院留学生信息汇总表.xlsx
+++ b/service/public/downloads/信息学院留学生信息汇总表.xlsx
@@ -10,11 +10,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="1">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
   </numFmts>
   <fonts count="1">
@@ -379,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1897,7 +1893,7 @@
         <v>ANDUP CHARLES</v>
       </c>
       <c r="C59" t="str">
-        <v/>
+        <v>女</v>
       </c>
       <c r="D59" t="str">
         <v>国际商务</v>
@@ -1941,9 +1937,35 @@
         <v/>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>1412190126</v>
+      </c>
+      <c r="B61" t="str">
+        <v>徐佳慧</v>
+      </c>
+      <c r="C61" t="str">
+        <v>女</v>
+      </c>
+      <c r="D61" t="str">
+        <v>软件</v>
+      </c>
+      <c r="E61" t="str">
+        <v>软件1401</v>
+      </c>
+      <c r="F61" t="str">
+        <v>2649387037@qq.com</v>
+      </c>
+      <c r="G61" t="str">
+        <v>13216130161</v>
+      </c>
+      <c r="H61" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H60"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H61"/>
   </ignoredErrors>
 </worksheet>
 </file>